--- a/data/case1/14/V2_2.xlsx
+++ b/data/case1/14/V2_2.xlsx
@@ -61,167 +61,167 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>0.99999999344617274</v>
+        <v>0.99999999549822216</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>0.99340649716408014</v>
+        <v>0.99555708568604973</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.96997432260513494</v>
+        <v>0.98017271900621883</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.95857661440084829</v>
+        <v>0.97466217561852275</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.94754161132064363</v>
+        <v>0.96970331376184427</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.9204836413030707</v>
+        <v>0.94633035167620727</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.91757854159378649</v>
+        <v>0.93973076519590659</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.91384409016183288</v>
+        <v>0.93059689826335945</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.91145577934006305</v>
+        <v>0.91884633512850022</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.91000450993324888</v>
+        <v>0.90801439501239489</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.90987316334030455</v>
+        <v>0.90641783656284325</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.90987957813201481</v>
+        <v>0.90363730548318366</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.90379422786572083</v>
+        <v>0.89234782041183802</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.90188771992915007</v>
+        <v>0.88817990781193323</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.9014453132814001</v>
+        <v>0.88558813337578335</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.90150161863146916</v>
+        <v>0.88308144195698168</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.9091820030846498</v>
+        <v>0.87937330729540542</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.90807309534710012</v>
+        <v>0.87826437583905992</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>0.99065761138164232</v>
+        <v>0.99450382753497402</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>0.98354052448102247</v>
+        <v>0.98738671456911464</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>0.98214203917503051</v>
+        <v>0.98598821503835055</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>0.98087753536490518</v>
+        <v>0.98472370931551056</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>0.9629384951687745</v>
+        <v>0.97313758065203704</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>0.94991656674577962</v>
+        <v>0.96011636183913396</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>0.9434593982312437</v>
+        <v>0.9536593052017569</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>0.91682568094817318</v>
+        <v>0.9450813655742254</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>0.91197596524396518</v>
+        <v>0.94117841539685865</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>0.89049274202389805</v>
+        <v>0.92435850256244856</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>0.87521758548736128</v>
+        <v>0.91252938678847195</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>0.86864641515840668</v>
+        <v>0.90756462711661912</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>0.86099207510277109</v>
+        <v>0.90434245386450884</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>0.85931274259390866</v>
+        <v>0.89978920820123276</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>0.85879274171109699</v>
+        <v>0.89553359975105895</v>
       </c>
     </row>
   </sheetData>
